--- a/codetantra.xlsx
+++ b/codetantra.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="376">
   <si>
     <t>problem name</t>
   </si>
@@ -969,6 +969,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3635; import java.util.*; import java.util.stream.*; public class CTJ3635 { public static void main(String[] args) { System.out.println(((args[0].split(",").length + 1) * (args[0].split(",").length + 2)) / 2 - Arrays.stream(args[0].split(",")).mapToInt(Integer::parseInt).sum()); } }
+</t>
+  </si>
+  <si>
     <t>3.2.42. Search in Rotated Sorted Array (Medium)</t>
   </si>
   <si>
@@ -1009,6 +1013,10 @@
   System.out.println(search(arr, key));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3655; import java.util.*; import java.util.stream.*; public class CTJ3655 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; a = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int k = Integer.parseInt(args[1]), l = 0, h = a.size() - 1, m; while (l &lt;= h) { m = (l + h) / 2; if (a.get(m) == k) return m; if (a.get(l) &lt;= a.get(m)) { if (a.get(l) &lt;= k &amp;&amp; k &lt; a.get(m)) h = m - 1; else l = m + 1; } else { if (a.get(m) &lt; k &amp;&amp; k &lt;= a.get(h)) l = m + 1; else h = m - 1; } } return -1; }).get()); } }
+</t>
   </si>
   <si>
     <t>3.2.5.1. Binary Search in Sorted Array(Easy)</t>
@@ -1044,6 +1052,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3598; import java.util.*; import java.util.stream.*; public class CTJ3598 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; a = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int k = Integer.parseInt(args[1]), l = 0, h = a.size() - 1, r = -1, m; while (l &lt;= h) { m = (l + h) / 2; if (a.get(m) == k) { r = m; h = m - 1; } else if (a.get(m) &lt; k) l = m + 1; else h = m - 1; } return r; }).get()); } }
+</t>
+  </si>
+  <si>
     <t>3.2.52. Smallest Positive Missing (Medium)</t>
   </si>
   <si>
@@ -1067,6 +1079,10 @@
   System.out.println(missingNumber(arr));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3648; import java.util.*; import java.util.stream.*; public class CTJ3648 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; a = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); Set&lt;Integer&gt; s = new HashSet&lt;&gt;(a); for (int i = 1; i &lt;= a.size() + 1; i++) if (!s.contains(i)) return i; return -1; }).get()); } }
+</t>
   </si>
   <si>
     <t>3.2.5.3. Find triplets with zero sum (Medium)</t>
@@ -1103,6 +1119,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3653; import java.util.*; import java.util.stream.*; public class CTJ3653 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; a = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); Collections.sort(a); for (int i = 0, n = a.size(); i &lt; n - 2; i++) for (int l = i + 1, r = n - 1; l &lt; r;) { int s = a.get(i) + a.get(l) + a.get(r); if (s == 0) return true; else if (s &lt; 0) l++; else r--; } return false; }).get()); } }
+</t>
+  </si>
+  <si>
     <t>3.3.5.1. TWO sum(Easy)</t>
   </si>
   <si>
@@ -1128,6 +1148,10 @@
   System.out.println(twoSum(nums, target).stream().map(String::valueOf).collect(Collectors.joining(",")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3656; import java.util.*; import java.util.stream.*; public class CTJ3656 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; n = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int t = Integer.parseInt(args[1]); Map&lt;Integer,Integer&gt; m = new HashMap&lt;&gt;(); for (int i = 0; i &lt; n.size(); i++) { int c = t - n.get(i); if (m.containsKey(c)) return Arrays.asList(m.get(c), i).stream().map(String::valueOf).collect(Collectors.joining(",")); m.put(n.get(i), i); } return ""; }).get()); } }
+</t>
   </si>
   <si>
     <t>3.3.52. Pair Sum in a Sorted and Rotated Array(Medium)</t>
@@ -1183,6 +1207,10 @@
   System.out.println(pairInSortedRotated(arr, target));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3195; import java.util.*; import java.util.stream.*; public class CTJ3195 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; a = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int t = Integer.parseInt(args[1]), n = a.size(), p = -1; for (int i = 0; i &lt; n - 1; i++) if (a.get(i) &gt; a.get(i + 1)) { p = i; break; } int l = (p + 1) % n, r = (p == -1 ? n - 1 : p); while (l != r) { int s = a.get(l) + a.get(r); if (s == t) return true; if (s &lt; t) l = (l + 1) % n; else r = (n + r - 1) % n; } return false; }).get()); } }
+</t>
   </si>
   <si>
     <t>3.3.5.3. Container With Most Water(Medium)</t>
@@ -1216,6 +1244,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3193; import java.util.*; import java.util.stream.*; public class CTJ3193 { public static void main(String[] args) { System.out.println((() -&gt; { List&lt;Integer&gt; h = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int l = 0, r = h.size() - 1, m = 0; while (l &lt; r) { m = Math.max(m, Math.min(h.get(l), h.get(r)) * (r - l)); if (h.get(l) &lt; h.get(r)) l++; else r--; } return m; }).get()); } }
+</t>
+  </si>
+  <si>
     <t>3.3.6.1. Contain Duplicates(Easy)</t>
   </si>
   <si>
@@ -1239,6 +1271,10 @@
   System.out.println(containDuplicates(nums));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3179; import java.util.*; import java.util.stream.*; public class CTJ3179 { public static void main(String[] args) { System.out.println(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()).size() != new HashSet&lt;&gt;(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList())).size()); } }
+</t>
   </si>
   <si>
     <t>3.3.6.2. Chocolate Distribution Problem(Easy)</t>
@@ -1260,7 +1296,14 @@
 print(findMinDiff(arr, m))</t>
   </si>
   <si>
+    <t xml:space="preserve">import sys;print(min([y - x for x, y in zip(sorted(a := list(map(int, sys.argv[1].split(',')))), a[m := int(sys.argv[2]) - 1:])] or [0]) if m and len(a) &gt;= m else 0)
+</t>
+  </si>
+  <si>
     <t>3.3.6.3.3 sum (Medium)</t>
+  </si>
+  <si>
+    <t>import sys;print(next(([a,b,c] for i,a in enumerate(s:=sorted(map(int,sys.argv[1].split(',')))) if i==0 or a!=s[i-1] for l in range(i+1,len(s)) for r in range(len(s)-1,i,-1) if l&lt;r and s[l]+s[r]==-a),[-1]))</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1409,6 +1452,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">import sys;nums=[*map(int,sys.argv[1].split(","))];print(",".join(map(str,next((r for r in[[x for i,x in enumerate(nums) if x in (c:=[k for k,v in ((lambda a,b:(a,b))(*[(lambda c,d:(c,d) if c!=d else (0,0))(nums[0],1)]+[(lambda a,b:a+b if x==c else (a-1 if a else (x,1)))(*c) for x in nums for c in [(0,0),(0,0)]])) if nums.count(k)&gt;len(nums)//3] if x not in r]for r in [[]]),[]))))
+</t>
+  </si>
+  <si>
     <t>3.4.4.1. Longest Substring Without Repeating Characters (Medium</t>
   </si>
   <si>
@@ -1476,6 +1523,14 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3626; import java.util.*; import java.util.stream.*; public class CTJ3626 { public static int maxOnes(List&lt;Integer&gt; a, int k) { int l=0,r=0,z=0,m=0; while(r&lt;a.size()){ if(a.get(r++)==0)z++; while(z&gt;k)if(a.get(l++)==0)z--; m=Math.max(m,r-l); } return m; } public static void main(String[] args) { System.out.println(maxOnes(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()), Integer.parseInt(args[1]))); } }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import sys;a=list(map(int,sys.argv[1].split(",")));k=int(sys.argv[2]);l=0;z=0;print(max(((z:=z+(a[r]==0))&gt;k and (z-=(a[l]==0),l:=l+1),r-l+1)[1]for r in range(len(a))))
+</t>
+  </si>
+  <si>
     <t>3.4.5.1. Minimum Window Substring (Hard)</t>
   </si>
   <si>
@@ -1523,6 +1578,14 @@
   System.out.println(minWindow(s, t));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3645; import java.util.*; public class CTJ3645 { public static String minWindow(String s, String t) { if (s.length() &lt; t.length()) return ""; Map&lt;Character, Integer&gt; tMap = new HashMap&lt;&gt;(), win = new HashMap&lt;&gt;(); for (char c : t.toCharArray()) tMap.put(c, tMap.getOrDefault(c, 0) + 1); int l = 0, r = 0, min = Integer.MAX_VALUE, start = 0, match = 0; while (r &lt; s.length()) { char c = s.charAt(r); win.put(c, win.getOrDefault(c, 0) + 1); if (tMap.containsKey(c) &amp;&amp; win.get(c).intValue() == tMap.get(c).intValue()) match++; while (match == tMap.size()) { if (r - l + 1 &lt; min) { min = r - l + 1; start = l; } char lc = s.charAt(l); win.put(lc, win.get(lc) - 1); if (tMap.containsKey(lc) &amp;&amp; win.get(lc).intValue() &lt; tMap.get(lc).intValue()) match--; l++; } r++; } return min == Integer.MAX_VALUE ? "" : s.substring(start, start + min); } public static void main(String[] a) { System.out.println(minWindow(a[0], a[1])); } }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import sys;from collections import Counter;S,T=sys.argv[1],sys.argv[2];print(min((S[i:j] for i in range(len(S)) for j in range(i+1,len(S)+1) if not (Counter(T)-Counter(S[i:j]))),key=len,default=""))
+</t>
   </si>
   <si>
     <t>3.4.52. Trapping Rain Water (Hard)</t>
@@ -1563,6 +1626,14 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3633; import java.util.*; import java.util.stream.*; public class CTJ3633 { public static int trap(List&lt;Integer&gt; h) { int l = 0, r = h.size() - 1, lm = 0, rm = 0, w = 0; while (l &lt; r) if (h.get(l) &lt; h.get(r)) w += (lm = Math.max(lm, h.get(l))) - h.get(l++); else w += (rm = Math.max(rm, h.get(r))) - h.get(r--); return w; } public static void main(String[] a) { System.out.println(trap(Arrays.stream(a[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()))); } }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import sys;print(sum(min(max(sys.argv[1:][0].split(','),key=int)[:i]+[0])+min(max(sys.argv[1:][0].split(','),key=int)[i+1:]+[0])-int(x) for i,x in enumerate(sys.argv[1].split(','))))
+</t>
+  </si>
+  <si>
     <t>3.4.5.3. Subarray Product Less Than K (Medium)</t>
   </si>
   <si>
@@ -1589,6 +1660,10 @@
   System.out.println(numSubarrayProductLessThanK(nums, k));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3638; import java.util.*; import java.util.stream.*; public class CTJ3638 { public static int numSubarrayProductLessThanK(List&lt;Integer&gt; n, int k) { if (k &lt;= 1) return 0; int p = 1, l = 0, c = 0; for (int r = 0; r &lt; n.size(); r++) { p *= n.get(r); while (p &gt;= k) p /= n.get(l++); c += r - l + 1; } return c; } public static void main(String[] a) { System.out.println(numSubarrayProductLessThanK(Arrays.stream(a[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()), Integer.parseInt(a[1]))); } }
+</t>
   </si>
   <si>
     <t>3.5.5.1. Valid Anagram (Easy)</t>
@@ -1617,6 +1692,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3650; public class CTJ3650 { public static boolean isAnagram(String s, String t) { if (s.length() != t.length()) return false; int[] c = new int[26]; for (int i = 0; i &lt; s.length(); i++) { c[s.charAt(i)-'a']++; c[t.charAt(i)-'a']--; } for (int i : c) if (i != 0) return false; return true; } public static void main(String[] a) { System.out.println(isAnagram(a[0], a[1])); } }
+</t>
+  </si>
+  <si>
     <t>3.5.5.2. Longest Common Pretix (Easy)</t>
   </si>
   <si>
@@ -1640,6 +1719,10 @@
   System.out.println(longestCommonPrefix(strs));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3652; import java.util.*; import java.util.stream.*; public class CTJ3652 { public static String longestCommonPrefix(List&lt;String&gt; s) { String p = s.get(0); for (int i = 1; i &lt; s.size(); i++) while (!s.get(i).startsWith(p)) if ((p = p.substring(0, p.length() - 1)).isEmpty()) return ""; return p; } public static void main(String[] a) { System.out.print
+</t>
   </si>
   <si>
     <t>3.5.5.3. Longest Palindromic Substring (Medium)</t>
@@ -1671,6 +1754,10 @@
   System.out.println(longestPalindrome(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3783; public class CTJ3783 { public static int longestPalindrome(String s) { int m = 0; for (int i = 0; i &lt; s.length(); i++) m = Math.max(m, Math.max(expand(s, i, i), expand(s, i, i + 1))); return m; } private static int expand(String s, int l, int r) { while (l &gt;= 0 &amp;&amp; r &lt; s.length() &amp;&amp; s.charAt(l) == s.charAt(r)) { l--; r++; } return r - l - 1; } public static void main(String[] a) { System.out.println(longestPalindrome(a[0])); } }
+</t>
   </si>
   <si>
     <t>3.5.6.1. Isomorphic Strings (Easy)</t>
@@ -1713,6 +1800,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3685; import java.util.*; public class CTJ3685 { public static boolean isomorphicStrings(String s, String t) { if (s.length() != t.length()) return false; Map&lt;Character, Character&gt; a = new HashMap&lt;&gt;(), b = new HashMap&lt;&gt;(); for (int i = 0; i &lt; s.length(); i++) { char x = s.charAt(i), y = t.charAt(i); if (a.containsKey(x)) { if (a.get(x) != y) return false; } else { if (b.containsKey(y)) return false; a.put(x, y); b.put(y, x); } } return true; } public static void main(String[] args) { System.out.println(isomorphicStrings(args[0], args[1])); } }
+</t>
+  </si>
+  <si>
     <t>3.5.6.2. Longest Repeaong Character Replacement (medium)</t>
   </si>
   <si>
@@ -1744,6 +1835,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3660; public class CTJ3660 { public static int characterReplacement(String s, int k) { int[] c = new int[26]; int m = 0, l = 0, r = 0; for (; r &lt; s.length(); r++) { m = Math.max(m, ++c[s.charAt(r) - 'A']); if (r - l + 1 - m &gt; k) c[s.charAt(l++) - 'A']--; } return s.length() - l; } public static void main(String[] args) { System.out.println(characterReplacement(args[0], Integer.parseInt(args[1]))); } }
+</t>
+  </si>
+  <si>
     <t>3.5.6.3. Count Palindromic Subsequences (Medium)</t>
   </si>
   <si>
@@ -1774,6 +1869,10 @@
   System.out.println(countPS(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3667; public class CTJ3667 { public static int countPS(String s) { int n = s.length(), dp[][] = new int[n][n]; for (int i = 0; i &lt; n; i++) dp[i][i] = 1; for (int l = 2; l &lt;= n; l++) for (int i = 0; i &lt;= n - l; i++) { int j = i + l - 1; dp[i][j] = s.charAt(i) == s.charAt(j) ? dp[i + 1][j] + dp[i][j - 1] + 1 : dp[i + 1][j] + dp[i][j - 1] - dp[i + 1][j - 1]; } return dp[0][n - 1]; } public static void main(String[] args) { System.out.println(countPS(args[0])); } }
+</t>
   </si>
   <si>
     <t>4.1.4.1. Degree of an Array</t>
@@ -1813,6 +1912,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3605; import java.util.*; import java.util.stream.*; public class CTJ3605 { public static int findShortestSubArray(List&lt;Integer&gt; nums) { Map&lt;Integer, Integer&gt; f = new HashMap&lt;&gt;(), fi = new HashMap&lt;&gt;(), li = new HashMap&lt;&gt;(); for (int i = 0; i &lt; nums.size(); i++) { int n = nums.get(i); f.put(n, f.getOrDefault(n, 0) + 1); fi.putIfAbsent(n, i); li.put(n, i); } int d = Collections.max(f.values()), m = nums.size(); for (int n : f.keySet()) if (f.get(n) == d) m = Math.min(m, li.get(n) - fi.get(n) + 1); return m; } public static void main(String[] args) { System.out.println(findShortestSubArray(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()))); } }
+</t>
+  </si>
+  <si>
     <t>4.1.42. Next Permutation(Medium)</t>
   </si>
   <si>
@@ -1852,6 +1955,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3711; import java.util.*; import java.util.stream.*; public class CTJ3711 { public static List&lt;Integer&gt; nextPermutation(List&lt;Integer&gt; a) { int i = a.size() - 2; while (i &gt;= 0 &amp;&amp; a.get(i) &gt;= a.get(i + 1)) i--; if (i &gt;= 0) { int j = a.size() - 1; while (a.get(j) &lt;= a.get(i)) j--; Collections.swap(a, i, j); } for (int l = i + 1, r = a.size() - 1; l &lt; r; Collections.swap(a, l++, r--)); return a; } public static void main(String[] args) { System.out.println(nextPermutation(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList())).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
+  </si>
+  <si>
     <t>4.1.5.1. Missing Number</t>
   </si>
   <si>
@@ -1871,6 +1978,10 @@
   System.out.println(missingNumber(nums));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3593; import java.util.*; import java.util.stream.*; public class CTJ3593 { public static int missingNumber(List&lt;Integer&gt; n) { return n.size() * (n.size() + 1) / 2 - n.stream().mapToInt(i -&gt; i).sum(); } public static void main(String[] args) { System.out.println(missingNumber(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()))); } }
+</t>
   </si>
   <si>
     <t>4.1.5.2. Word Pattem(Easy)</t>
@@ -1913,6 +2024,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3784; import java.util.*; public class CTJ3784 { public static boolean WordPattern(String p, String s) { String[] w = s.split(" "); if (w.length != p.length()) return false; Map&lt;Character, String&gt; c2w = new HashMap&lt;&gt;(); Map&lt;String, Character&gt; w2c = new HashMap&lt;&gt;(); for (int i = 0; i &lt; p.length(); i++) { char c = p.charAt(i); if (c2w.containsKey(c) &amp;&amp; !c2w.get(c).equals(w[i]) || !c2w.containsKey(c) &amp;&amp; w2c.containsKey(w[i])) return false; c2w.put(c, w[i]); w2c.put(w[i], c); } return true; } public static void main(String[] args) { System.out.println(WordPattern(args[0], args[1])); } }
+</t>
+  </si>
+  <si>
     <t>4.2.5.1. Longest Harmonious Subsequence(Easy)</t>
   </si>
   <si>
@@ -1939,6 +2054,10 @@
   System.out.println(findLHS(nums));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3785; import java.util.*; import java.util.stream.*; public class CTJ3785 { public static int findLHS(List&lt;Integer&gt; nums) { Map&lt;Integer, Integer&gt; f = new HashMap&lt;&gt;(); int m = 0; for (int n : nums) f.put(n, f.getOrDefault(n, 0) + 1); for (int k : f.keySet()) if (f.containsKey(k + 1)) m = Math.max(m, f.get(k) + f.get(k + 1)); return m; } public static void main(String[] args) { System.out.println(findLHS(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()))); } }
+</t>
   </si>
   <si>
     <t>4.2.5.2. Group Anagrams(Medium)(</t>
@@ -2059,6 +2178,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3786; public class CTJ3786 { public static int firstUniqChar(String s) { int[] c = new int[26]; for (char ch : s.toCharArray()) c[ch - 'a']++; for (int i = 0; i &lt; s.length(); i++) if (c[s.charAt(i) - 'a'] == 1) return i; return -1; } public static void main(String[] args) { System.out.println(firstUniqChar(args[0])); } }
+</t>
+  </si>
+  <si>
     <t>4.2.6.2. Next smallest palindrome(Medium)</t>
   </si>
   <si>
@@ -2126,6 +2249,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3787; import java.util.*; import java.util.stream.*; public class CTJ3787 { public static List&lt;Integer&gt; nearestPalindromic(List&lt;Integer&gt; num) { int n = num.size(), mid = n / 2, carry = 1; int[] d = num.stream().mapToInt(i -&gt; i).toArray(), p = d.clone(); for (int i = 0; i &lt; n / 2; i++) p[n - 1 - i] = p[i]; if (compare(p, d) &gt; 0) return toList(p); if (n % 2 == 1) { p[mid] += carry; carry = p[mid] / 10; p[mid] %= 10; mid--; } else mid--; for (int i = mid; i &gt;= 0 &amp;&amp; carry &gt; 0; i--) { p[i] += carry; carry = p[i] / 10; p[i] %= 10; } for (int i = 0; i &lt; n / 2; i++) p[n - 1 - i] = p[i]; return toList(p); } private static List&lt;Integer&gt; toList(int[] arr) { List&lt;Integer&gt; r = new ArrayList&lt;&gt;(); for (int v : arr) r.add(v); return r; } private static int compare(int[] a, int[] b) { for (int i = 0; i &lt; a.length; i++) if (a[i] != b[i]) return a[i] - b[i]; return 0; } public static void main(String[] args) { System.out.println(nearestPalindromic(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList())).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
+  </si>
+  <si>
     <t>4.2.6.3. Find the Ditterence(Easy)</t>
   </si>
   <si>
@@ -2150,6 +2277,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3686; public class CTJ3686 { public static String findTheDifference(String s, String t) { int r = 0; for (char c : s.toCharArray()) r ^= c; for (char c : t.toCharArray()) r ^= c; return String.valueOf((char)r); } public static void main(String[] args) { System.out.println(findTheDifference(args[0], args[1])); } }
+</t>
+  </si>
+  <si>
     <t>5.1.4.1. Factonal ot A number (Easy)</t>
   </si>
   <si>
@@ -2168,6 +2299,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3712; public class CTJ3712 { public static long factorial(int n) { return (n &lt;= 1) ? 1 : n * factorial(n - 1); } public static void main(String[] args) { System.out.println(factorial(Integer.parseInt(args[0]))); } }
+</t>
+  </si>
+  <si>
     <t>5.1.4.2. Nth Fibonacci Number(Easy</t>
   </si>
   <si>
@@ -2188,6 +2323,10 @@
   System.out.println(nthFibonacci(n));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3713; public class CTJ3713 { public static int nthFibonacci(int n) { return (n &lt;= 1) ? n : nthFibonacci(n - 1) + nthFibonacci(n - 2); } public static void main(String[] args) { System.out.println(nthFibonacci(Integer.parseInt(args[0]))); } }
+</t>
   </si>
   <si>
     <t>5.1.4.3. Power of Three(Easy)</t>
@@ -2209,6 +2348,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3631; public class CTJ3631 { public static boolean isPowerOfThree(int n) { return n &gt; 0 &amp;&amp; (n == 1 || (n % 3 == 0 &amp;&amp; isPowerOfThree(n / 3))); } public static void main(String[] args) { System.out.println(isPowerOfThree(Integer.parseInt(args[0]))); } }
+</t>
+  </si>
+  <si>
     <t>5.1.5.1. Power ot Four(Easy)</t>
   </si>
   <si>
@@ -2226,6 +2369,10 @@
   System.out.println(isPowerOfFour(n));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3632; public class CTJ3632 { public static boolean isPowerOfFour(int n) { return n &gt; 0 &amp;&amp; (n == 1 || (n % 4 == 0 &amp;&amp; isPowerOfFour(n / 4))); } public static void main(String[] args) { System.out.println(isPowerOfFour(Integer.parseInt(args[0]))); } }
+</t>
   </si>
   <si>
     <t>5.1.52. Unique 3-Digit Even Numbers(Easy)(</t>
@@ -2265,6 +2412,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3637; import java.util.*; import java.util.stream.*; public class CTJ3637 { public static int countEvenThreeDigitNumbers(List&lt;Integer&gt; digits) { Set&lt;Integer&gt; r = new HashSet&lt;&gt;(); boolean[] u = new boolean[digits.size()]; new Object() { void g(int d, int n) { if (d == 3) { if (n &gt;= 100 &amp;&amp; n % 2 == 0) r.add(n); return; } for (int i = 0; i &lt; digits.size(); i++) if (!u[i]) { if (d == 0 &amp;&amp; digits.get(i) == 0) continue; u[i] = true; g(d + 1, n * 10 + digits.get(i)); u[i] = false; } } }.g(0, 0); return r.size(); } public static void main(String[] args) { System.out.println(countEvenThreeDigitNumbers(Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()))); } }
+</t>
+  </si>
+  <si>
     <t>5.1.5.3. Fair Distribution ot Cookies(Medium)</t>
   </si>
   <si>
@@ -2303,23 +2454,15 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3646; import java.util.*; import java.util.stream.*; public class CTJ3646 { public static int distributeCookies(List&lt;Integer&gt; c, int k) { int[] ch = new int[k]; return new Object() { int b(int i) { if (i == c.size()) return Arrays.stream(ch).max().getAsInt(); int m = Integer.MAX_VALUE; for (int j = 0; j &lt; k; j++) { ch[j] += c.get(i); m = Math.min(m, b(i + 1)); ch[j] -= c.get(i); if (ch[j] == 0) break; } return m; } }.b(0); } public static void main(String[] a) { System.out.println(distributeCookies(Arrays.stream(a[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()), Integer.parseInt(a[1]))); } }
+</t>
+  </si>
+  <si>
     <t>5.1.5.4. Generate Binary Strings Without Adjacent Zeros(Medium)</t>
   </si>
   <si>
-    <t>import sys
-n = int(sys.argv[1])
-def validBinaryStrings(n):
- result=[]
- def backtrack(current):
-  if len(current)==n:
-   result.append(current)
-   return 
-  backtrack(current+'1')
-  if not current or current[-1]!='0':
-   backtrack(current+'0')
- backtrack("")
- return ",".join(result)
-print(validBinaryStrings(n))</t>
+    <t xml:space="preserve">import sys;print((lambda n:[s for s in (lambda f: (lambda x:f(f,x))) (lambda f,x: ["1"*n] if x==1 else ["1"+t for t in f(f,x-1)]+["0"+t for t in f(f,x-1) if not t or t[0]!="0"])("")])(int(sys.argv[1])))
+</t>
   </si>
   <si>
     <t>5.2.3.1. Sum of Digits (Easy)</t>
@@ -2341,6 +2484,10 @@
   System.out.println(digitSum(n));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3714; public class CTJ3714 { public static int digitSum(int n) { return String.valueOf(n).chars().map(c -&gt; c - '0').sum(); } public static void main(String[] args) { System.out.println(digitSum(Integer.parseInt(args[0]))); } }
+</t>
   </si>
   <si>
     <t>5.2.32. Array Reverse(Easy)</t>
@@ -2368,6 +2515,10 @@
   System.out.println(reverseArray(arr).stream().map(String::valueOf).collect(Collectors.joining(",")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3715; import java.util.*; import java.util.stream.*; public class CTJ3715 { public static List&lt;Integer&gt; reverseArray(List&lt;Integer&gt; arr) { for (int l = 0, r = arr.size() - 1; l &lt; r; l++, r--) { int t = arr.get(l); arr.set(l, arr.get(r)); arr.set(r, t); } return arr; } public static void main(String[] args) { List&lt;Integer&gt; arr = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); System.out.println(reverseArray(arr).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
   </si>
   <si>
     <t>5.2.3.3. The Number ot Beautiful Subsets (Medium)</t>
@@ -2405,6 +2556,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3584; import java.util.*; import java.util.stream.*; public class CTJ3584 { public static int beautifulSubsets(List&lt;Integer&gt; nums, int k) { Map&lt;Integer, Integer&gt; freq = new HashMap&lt;&gt;(); return dfs(nums, 0, k, freq) - 1; } private static int dfs(List&lt;Integer&gt; nums, int index, int k, Map&lt;Integer, Integer&gt; freq) { if (index == nums.size()) return 1; int current = nums.get(index), count = dfs(nums, index + 1, k, freq); if (!freq.containsKey(current - k)) { freq.put(current, freq.getOrDefault(current, 0) + 1); count += dfs(nums, index + 1, k, freq); freq.put(current, freq.get(current) - 1); if (freq.get(current) == 0) freq.remove(current); } return count; } public static void main(String[] args) { List&lt;Integer&gt; nums = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int k = Integer.parseInt(args[1]); System.out.println(beautifulSubsets(nums, k)); } }
+</t>
+  </si>
+  <si>
     <t>5.2.3.4. Count Collisions of Monkeys on a Polygon (Medium)</t>
   </si>
   <si>
@@ -2434,6 +2589,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3582; public class CTJ3582 { public static int monkeyMove(int n) { int MOD = 1_000_000_007; long totalWays = modPow(2, n, MOD); long result = (totalWays - 2 + MOD) % MOD; return (int) result; } private static long modPow(long base, long exp, int mod) { long result = 1; base %= mod; while (exp &gt; 0) { if ((exp &amp; 1) == 1) result = (result * base) % mod; base = (base * base) % mod; exp &gt;&gt;= 1; } return result; } public static void main(String[] args) { int n = Integer.parseInt(args[0]); System.out.println(monkeyMove(n)); } }
+</t>
+  </si>
+  <si>
     <t>5.2.4.1. Maximum Strength ot a Group (Medium)</t>
   </si>
   <si>
@@ -2477,6 +2636,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3587; import java.util.*; import java.util.stream.*; public class CTJ3587 { public static long maxStrength(List&lt;Integer&gt; nums) { nums.sort((a, b) -&gt; Integer.compare(Math.abs(b), Math.abs(a))); long product = 1; int negCount = 0, zeroCount = 0; Integer lastNeg = null; for (int num : nums) { if (num == 0) { zeroCount++; continue; } if (num &lt; 0) { negCount++; lastNeg = num; } product *= num; } if (product &lt; 0 &amp;&amp; lastNeg != null) product /= lastNeg; if (product == 1 &amp;&amp; negCount == 0 &amp;&amp; zeroCount &gt; 0) return 0; return product; } public static void main(String[] args) { List&lt;Integer&gt; nums = Arrays.stream(args[0].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); System.out.println(maxStrength(nums)); } }
+</t>
+  </si>
+  <si>
     <t>5.2.4.2. Find the Punishment Number ot an Integer (Medium)</t>
   </si>
   <si>
@@ -2510,6 +2673,10 @@
   System.out.println(punishmentNumber(n));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3585; public class CTJ3585 { public static int punishmentNumber(int n) { int sum = 0; for (int i = 1; i &lt;= n; i++) { int square = i * i; if (canSplit(Integer.toString(square), 0, i)) { sum += square; } } return sum; } private static boolean canSplit(String s, int index, int target) { if (index == s.length()) { return target == 0; } for (int i = index + 1; i &lt;= s.length(); i++) { int num = Integer.parseInt(s.substring(index, i)); if (canSplit(s, i, target - num)) { return true; } } return false; } public static void main(String[] args) { int n = Integer.parseInt(args[0]); System.out.println(punishmentNumber(n)); } }
+</t>
   </si>
   <si>
     <t>5.3.2.1. Tower of Hanoi (Medium)</t>
@@ -2571,6 +2738,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3580; public class CTJ3580 { public static int countGoodNumbers(long n) { final int MOD = 1_000_000_007; long evenCount = (n + 1) / 2; long oddCount = n / 2; long evenWays = power(5, evenCount, MOD); long oddWays = power(4, oddCount, MOD); return (int)((evenWays * oddWays) % MOD); } private static long power(long base, long exp, int mod) { long result = 1; base = base % mod; while (exp &gt; 0) { if ((exp &amp; 1) == 1) result = (result * base) % mod; base = (base * base) % mod; exp &gt;&gt;= 1; } return result; } public static void main(String[] args) { long n = Long.parseLong(args[0]); System.out.println(countGoodNumbers(n)); } }
+</t>
+  </si>
+  <si>
     <t>5.3.2.3. Minimum Nonzero Product of the Array Elements (Easy)</t>
   </si>
   <si>
@@ -2604,6 +2775,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3581; public class CTJ3581 { public static int minNonZeroProduct(int p) { final int MOD = 1_000_000_007; long maxNum = (1L &lt;&lt; p) - 1; long base = maxNum - 1; long exp = maxNum / 2; long powerVal = power(base, exp, MOD); return (int)((maxNum % MOD * powerVal) % MOD); } private static long power(long base, long exp, int mod) { long result = 1; base = base % mod; while (exp &gt; 0) { if ((exp &amp; 1) == 1) result = (result * base) % mod; base = (base * base) % mod; exp &gt;&gt;= 1; } return result; } public static void main(String[] args) { int p = Integer.parseInt(args[0]); System.out.println(minNonZeroProduct(p)); } }
+</t>
+  </si>
+  <si>
     <t>5.3.2.4. Maximize Number of Nice Divisors (Hard)</t>
   </si>
   <si>
@@ -2642,6 +2817,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3594; public class CTJ3594 { public static int maxNiceDivisors(int primeFactors) { if (primeFactors &lt;= 3) return primeFactors; final int MOD = 1_000_000_007; int quotient = primeFactors / 3; int remainder = primeFactors % 3; if (remainder == 0) return (int) power(3, quotient, MOD); else if (remainder == 1) return (int) (power(3, quotient - 1, MOD) * 4 % MOD); else return (int) (power(3, quotient, MOD) * 2 % MOD); } private static long power(long base, int exp, int mod) { long result = 1; base %= mod; while (exp &gt; 0) { if ((exp &amp; 1) == 1) result = (result * base) % mod; base = (base * base) % mod; exp &gt;&gt;= 1; } return result; } public static void main(String[] args) { int primeFactors = Integer.parseInt(args[0]); System.out.println(maxNiceDivisors(primeFactors)); } }
+</t>
+  </si>
+  <si>
     <t>5.3.3.1. Wildcard Matching (Medium</t>
   </si>
   <si>
@@ -2675,6 +2854,10 @@
   System.out.println(isMatch(s, p));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3589; public class CTJ3589 { public static boolean isMatch(String s, String p) { int m = s.length(), n = p.length(); boolean[][] dp = new boolean[m + 1][n + 1]; dp[0][0] = true; for (int j = 1; j &lt;= n; j++) if (p.charAt(j - 1) == '*') dp[0][j] = dp[0][j - 1]; for (int i = 1; i &lt;= m; i++) for (int j = 1; j &lt;= n; j++) dp[i][j] = (p.charAt(j - 1) == '?' || p.charAt(j - 1) == s.charAt(i - 1)) ? dp[i - 1][j - 1] : (p.charAt(j - 1) == '*' ? dp[i][j - 1] || dp[i - 1][j] : false); return dp[m][n]; } public static void main(String[] args) { String s = args[0]; String p = args[1]; System.out.println(isMatch(s, p)); } }
+</t>
   </si>
   <si>
     <t>5.3.3.2. Permutation Sequence (Medium)</t>
@@ -2712,6 +2895,10 @@
   System.out.println(getPermutation(n, k));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3591; import java.util.ArrayList; import java.util.List; public class CTJ3591 { public static String getPermutation(int n, int k) { List&lt;Integer&gt; numbers = new ArrayList&lt;&gt;(); int[] fact = new int[n]; fact[0] = 1; for (int i = 1; i &lt; n; i++) fact[i] = fact[i - 1] * i; for (int i = 1; i &lt;= n; i++) numbers.add(i); k--; StringBuilder sb = new StringBuilder(); for (int i = n; i &gt;= 1; i--) { int index = k / fact[i - 1]; sb.append(numbers.get(index)); numbers.remove(index); k %= fact[i - 1]; } return sb.toString(); } public static void main(String[] args) { int n = Integer.parseInt(args[0]); int k = Integer.parseInt(args[1]); System.out.println(getPermutation(n, k)); } }
+</t>
   </si>
   <si>
     <t>5.4.4.1. Permutations (Medium)</t>
@@ -2977,6 +3164,10 @@
   System.out.println(isAdditiveNumber(num));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3620; import java.math.BigInteger; public class CTJ3620 { public static boolean isAdditiveNumber(String num) { int n = num.length(); if (n &lt; 3) return false; for (int i = 1; i &lt;= n / 2; i++) { if (num.charAt(0) == '0' &amp;&amp; i &gt; 1) break; BigInteger num1 = new BigInteger(num.substring(0, i)); for (int j = 1; Math.max(i, j) &lt;= n - i - j; j++) { if (num.charAt(i) == '0' &amp;&amp; j &gt; 1) break; BigInteger num2 = new BigInteger(num.substring(i, i + j)); if (isValid(num1, num2, i + j, num)) return true; } } return false; } private static boolean isValid(BigInteger num1, BigInteger num2, int start, String num) { if (start == num.length()) return true; BigInteger sum = num1.add(num2); String sumStr = sum.toString(); if (!num.startsWith(sumStr, start)) return false; return isValid(num2, sum, start + sumStr.length(), num); } public static void main(String[] args) { String num = args[0]; System.out.println(isAdditiveNumber(num)); } }
+</t>
   </si>
   <si>
     <t>5.4.5.3. Longest Subsequence Repeated k Times (Hard) (</t>
@@ -3038,6 +3229,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3611; import java.util.*; public class CTJ3611 { public static String longestSubsequenceRepeatedK(String s, int k) { String bestResult = ""; Queue&lt;String&gt; queue = new LinkedList&lt;&gt;(); queue.add(""); while (!queue.isEmpty()) { String current = queue.poll(); for (char c = 'a'; c &lt;= 'z'; c++) { String next = current + c; if (isKRepeatedSubsequence(next, s, k)) { bestResult = next; queue.add(next); } } } return bestResult; } private static boolean isKRepeatedSubsequence(String sub, String s, int k) { if (sub.isEmpty()) return true; int sPtr = 0, subPtr = 0, repeats = 0; while (sPtr &lt; s.length()) { if (s.charAt(sPtr) == sub.charAt(subPtr)) { subPtr++; if (subPtr == sub.length()) { repeats++; if (repeats == k) return true; subPtr = 0; } } sPtr++; } return false; } public static void main(String[] args) { String s = args[0]; int k = Integer.parseInt(args[1]); System.out.println(longestSubsequenceRepeatedK(s, k)); } }
+</t>
+  </si>
+  <si>
     <t>5.5.3.1. Sum ot XOR of all possible subsets (Medium) (</t>
   </si>
   <si>
@@ -3065,6 +3260,10 @@
   System.out.println(subsetXORSum(arr));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3717; import java.util.*; import java.util.stream.*; public class CTJ3717 { public static int subsetXORSum(List&lt;Integer&gt; arr) { return helper(arr, 0, 0); } private static int helper(List&lt;Integer&gt; arr, int index, int currentXor) { if (index == arr.size()) return currentXor; int include = helper(arr, index + 1, currentXor ^ arr.get(index)), exclude = helper(arr, index + 1, currentXor); return include + exclude; } public static void main(String[] args) { List&lt;Integer&gt; arr = Arrays.stream(args[0].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); System.out.println(subsetXORSum(arr)); } }
+</t>
   </si>
   <si>
     <t>5.5.3.2. N-Queens (Hard)</t>
@@ -3178,6 +3377,10 @@
   System.out.println(generateParanthesis(n).stream().map(String::valueOf).collect(Collectors.joining(",")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3609; import java.util.*; import java.util.stream.*; public class CTJ3609 { public static List&lt;String&gt; generateParanthesis(int n) { List&lt;String&gt; result = new ArrayList&lt;&gt;(); backtrack(result, "", 0, 0, n); return result; } private static void backtrack(List&lt;String&gt; result, String current, int open, int close, int max) { if (current.length() == max * 2) { result.add(current); return; } if (open &lt; max) backtrack(result, current + "(", open + 1, close, max); if (close &lt; open) backtrack(result, current + ")", open, close + 1, max); } public static void main(String[] args) { int n = Integer.parseInt(args[0]); System.out.println(generateParanthesis(n).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
   </si>
   <si>
     <t>5.5.4.2. Subsets (Medium)</t>
@@ -3280,6 +3483,10 @@
   System.out.println(partition(s).stream().map(row -&gt; row.stream().map(String::valueOf).collect(Collectors.joining(","))).collect(Collectors.joining("\n")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3619; import java.util.*; import java.util.stream.*; public class CTJ3619 { public static List&lt;List&lt;String&gt;&gt; partition(String s) { List&lt;List&lt;String&gt;&gt; partitions = new ArrayList&lt;&gt;(); backtrack(s, 0, new ArrayList&lt;&gt;(), partitions); List&lt;String&gt; formattedPartitions = partitions.stream().map(p -&gt; String.join(",", p)).collect(Collectors.toList()); String finalString = String.join("", formattedPartitions); List&lt;List&lt;String&gt;&gt; resultForTestRunner = new ArrayList&lt;&gt;(); if (!finalString.isEmpty()) resultForTestRunner.add(Collections.singletonList(finalString)); return resultForTestRunner; } private static void backtrack(String s, int start, List&lt;String&gt; current, List&lt;List&lt;String&gt;&gt; result) { if (start == s.length()) { result.add(new ArrayList&lt;&gt;(current)); return; } for (int end = start + 1; end &lt;= s.length(); end++) { String substring = s.substring(start, end); if (isPalindrome(substring)) { current.add(substring); backtrack(s, end, current, result); current.remove(current.size() - 1); } } } private static boolean isPalindrome(String str) { int i = 0, j = str.length() - 1; while (i &lt; j) { if (str.charAt(i++) != str.charAt(j--)) return false; } return true; } public static void main(String[] args) { String s = args[0]; System.out.println(partition(s).stream().map(row -&gt; row.stream().map(String::valueOf).collect(Collectors.joining(","))).collect(Collectors.joining("\n"))); } }
+</t>
   </si>
   <si>
     <t>6.1.6.1. Valid Parentheses(</t>
@@ -3311,6 +3518,10 @@
   System.out.println(IsValid(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3577; import java.util.Stack; public class CTJ3577 { public static boolean IsValid(String s) { Stack&lt;Character&gt; stack = new Stack&lt;&gt;(); for (char ch : s.toCharArray()) { if (ch == '(' || ch == '{' || ch == '[') stack.push(ch); else { if (stack.isEmpty()) return false; char top = stack.pop(); if ((ch == ')' &amp;&amp; top != '(') || (ch == '}' &amp;&amp; top != '{') || (ch == ']' &amp;&amp; top != '[')) return false; } } return stack.isEmpty(); } public static void main(String[] args) { String s = args[0]; System.out.println(IsValid(s)); } }
+</t>
   </si>
   <si>
     <t>6.1.62. Evaluation ot Postfix Expression(</t>
@@ -3351,6 +3562,10 @@
   System.out.println(evalRPN(tokens));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3649; import java.util.*; import java.util.stream.*; public class CTJ3649 { public static int evalRPN(List&lt;String&gt; tokens) { Stack&lt;Integer&gt; stack = new Stack&lt;&gt;(); for (String token : tokens) { switch (token) { case "+": stack.push(stack.pop() + stack.pop()); break; case "-": int b = stack.pop(); int a = stack.pop(); stack.push(a - b); break; case "*": stack.push(stack.pop() * stack.pop()); break; case "/": int divisor = stack.pop(); int dividend = stack.pop(); stack.push(dividend / divisor); break; default: stack.push(Integer.parseInt(token)); } } return stack.pop(); } public static void main(String[] args) { List&lt;String&gt; tokens = Arrays.stream(args[0].split(",")).collect(Collectors.toList()); System.out.println(evalRPN(tokens)); } }
+</t>
   </si>
   <si>
     <t>6.1.6.3. Basic Calculator "(Medium)</t>
@@ -3402,6 +3617,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3672; public class CTJ3672 { public static int calculate(String s) { if (s == null || s.isEmpty()) return 0; int len = s.length(), currentNumber = 0; char operation = '+'; java.util.Stack&lt;Integer&gt; stack = new java.util.Stack&lt;&gt;(); for (int i = 0; i &lt; len; i++) { char currentChar = s.charAt(i); if (Character.isDigit(currentChar)) currentNumber = currentNumber * 10 + (currentChar - '0'); if ((!Character.isDigit(currentChar) &amp;&amp; currentChar != ' ') || i == len - 1) { switch (operation) { case '+': stack.push(currentNumber); break; case '-': stack.push(-currentNumber); break; case '*': stack.push(stack.pop() * currentNumber); break; case '/': stack.push(stack.pop() / currentNumber); break; } operation = currentChar; currentNumber = 0; } } int result = 0; for (int num : stack) result += num; return result; } public static void main(String[] args) { String s = args[0]; System.out.println(calculate(s)); } }
+</t>
+  </si>
+  <si>
     <t>6.1.7.1. Reversing the equation</t>
   </si>
   <si>
@@ -3432,6 +3651,10 @@
   System.out.println(reverseEqn(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3583; public class CTJ3583 { public static String reverseEqn(String s) { StringBuilder result = new StringBuilder(), number = new StringBuilder(); for (int i = s.length() - 1; i &gt;= 0; i--) { char ch = s.charAt(i); if (Character.isDigit(ch)) number.append(ch); else { result.append(number.reverse()); number.setLength(0); result.append(ch); } } result.append(number.reverse()); return result.toString(); } public static void main(String[] args) { String s = args[0]; System.out.println(reverseEqn(s)); } }
+</t>
   </si>
   <si>
     <t>6.1.72. Sort a Stack using Recursion</t>
@@ -3497,6 +3720,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3602; import java.util.Stack; public class CTJ3602 { public static String removeDuplicateLetters(String s) { int[] lastIndex = new int[26]; boolean[] seen = new boolean[26]; Stack&lt;Character&gt; stack = new Stack&lt;&gt;(); for (int i = 0; i &lt; s.length(); i++) lastIndex[s.charAt(i) - 'a'] = i; for (int i = 0; i &lt; s.length(); i++) { char c = s.charAt(i); int idx = c - 'a'; if (seen[idx]) continue; while (!stack.isEmpty() &amp;&amp; c &lt; stack.peek() &amp;&amp; i &lt; lastIndex[stack.peek() - 'a']) seen[stack.pop() - 'a'] = false; stack.push(c); seen[idx] = true; } StringBuilder result = new StringBuilder(); for (char ch : stack) result.append(ch); return result.toString(); } public static void main(String[] args) { String s = args[0]; System.out.println(removeDuplicateLetters(s)); } }
+</t>
+  </si>
+  <si>
     <t>6.2.3.1. Next Greater Element 1 (Easy)</t>
   </si>
   <si>
@@ -3532,6 +3759,10 @@
   System.out.println(nextGreaterElement(nums1, nums2).stream().map(String::valueOf).collect(Collectors.joining(",")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3634; import java.util.*; import java.util.stream.*; public class CTJ3634 { public static List&lt;Integer&gt; nextGreaterElement(List&lt;Integer&gt; nums1, List&lt;Integer&gt; nums2) { Map&lt;Integer, Integer&gt; nextGreaterMap = new HashMap&lt;&gt;(); Stack&lt;Integer&gt; stack = new Stack&lt;&gt;(); for (int num : nums2) { while (!stack.isEmpty() &amp;&amp; num &gt; stack.peek()) nextGreaterMap.put(stack.pop(), num); stack.push(num); } while (!stack.isEmpty()) nextGreaterMap.put(stack.pop(), -1); List&lt;Integer&gt; result = new ArrayList&lt;&gt;(); for (int num : nums1) result.add(nextGreaterMap.getOrDefault(num, -1)); return result; } public static void main(String[] args) { List&lt;Integer&gt; nums1 = Arrays.stream(args[0].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); List&lt;Integer&gt; nums2 = Arrays.stream(args[1].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); System.out.println(nextGreaterElement(nums1, nums2).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
   </si>
   <si>
     <t>6.2.3.2. Score of Parentheses</t>
@@ -3570,6 +3801,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3606; import java.util.Stack; public class CTJ3606 { public static int scoreOfParentheses(String s) { Stack&lt;Integer&gt; stack = new Stack&lt;&gt;(); for (char c : s.toCharArray()) { if (c == '(') stack.push(0); else { int val = 0; while (stack.peek() != 0) val += stack.pop(); stack.pop(); stack.push(val == 0 ? 1 : 2 * val); } } int score = 0; while (!stack.isEmpty()) score += stack.pop(); return score; } public static void main(String[] args) { String s = args[0]; System.out.println(scoreOfParentheses(s)); } }
+</t>
+  </si>
+  <si>
     <t>6.2.4.1. Clear Digits</t>
   </si>
   <si>
@@ -3604,6 +3839,10 @@
   System.out.println(clearDigits(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3600; import java.util.Stack; public class CTJ3600 { public static String clearDigits(String s) { Stack&lt;Character&gt; stack = new Stack&lt;&gt;(); for (char c : s.toCharArray()) { if (Character.isDigit(c)) { while (!stack.isEmpty() &amp;&amp; Character.isDigit(stack.peek())) stack.pop(); if (!stack.isEmpty()) stack.pop(); } else stack.push(c); } StringBuilder result = new StringBuilder(); for (char c : stack) result.append(c); return result.toString(); } public static void main(String[] args) { String s = args[0]; System.out.println(clearDigits(s)); } }
+</t>
   </si>
   <si>
     <t>6.2.4.2. Decode String (Medium)</t>
@@ -3663,6 +3902,10 @@
   System.out.println(backspaceCompare(s, t));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3596; public class CTJ3596 { public static boolean backspaceCompare(String s, String t) { return process(s).equals(process(t)); } private static String process(String str) { StringBuilder result = new StringBuilder(); for (char c : str.toCharArray()) if (c == '#') { if (result.length() &gt; 0) result.deleteCharAt(result.length() - 1); } else result.append(c); return result.toString(); } public static void main(String[] args) { String s = args[0]; String t = args[1]; System.out.println(backspaceCompare(s, t)); } }
+</t>
   </si>
   <si>
     <t>6.3.3.2. Infix to Postfix(</t>
@@ -3727,6 +3970,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3623; import java.util.Stack; public class CTJ3623 { public static String infixToPostfix(String expression) { StringBuilder result = new StringBuilder(); Stack&lt;Character&gt; stack = new Stack&lt;&gt;(); for (char c : expression.toCharArray()) { if (Character.isLetterOrDigit(c)) result.append(c); else if (c == '(') stack.push(c); else if (c == ')') { while (!stack.isEmpty() &amp;&amp; stack.peek() != '(') result.append(stack.pop()); if (!stack.isEmpty()) stack.pop(); } else { while (!stack.isEmpty() &amp;&amp; stack.peek() != '(' &amp;&amp; (precedence(stack.peek()) &gt; precedence(c) || (precedence(stack.peek()) == precedence(c) &amp;&amp; c != '^'))) result.append(stack.pop()); stack.push(c); } } while (!stack.isEmpty()) { if (stack.peek() == '(') { stack.pop(); continue; } result.append(stack.pop()); } return result.toString(); } private static int precedence(char op) { switch (op) { case '+': case '-': return 1; case '*': case '/': return 2; case '^': return 3; default: return -1; } } public static void main(String[] args) { String expression = args[0]; System.out.println(infixToPostfix(expression)); } }
+</t>
+  </si>
+  <si>
     <t>6.3.4.1. Baseball Game(Easy</t>
   </si>
   <si>
@@ -3766,6 +4013,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3640; import java.util.*; import java.util.stream.*; public class CTJ3640 { public static int calPoints(List&lt;String&gt; ops) { Stack&lt;Integer&gt; stack = new Stack&lt;&gt;(); for (String op : ops) switch (op) { case "+": stack.push(stack.peek() + stack.get(stack.size() - 2)); break; case "D": stack.push(2 * stack.peek()); break; case "C": stack.pop(); break; default: stack.push(Integer.parseInt(op)); } return stack.stream().mapToInt(Integer::intValue).sum(); } public static void main(String[] args) { List&lt;String&gt; ops = Arrays.stream(args[0].split(",")).map(s -&gt; s).collect(Collectors.toList()); System.out.println(calPoints(ops)); } }
+</t>
+  </si>
+  <si>
     <t>6.3.4.2. Validate Stack Sequences (Medium)</t>
   </si>
   <si>
@@ -3793,6 +4044,10 @@
   System.out.println(validateStackSequences(pushed, popped));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3651; import java.util.*; import java.util.stream.*; public class CTJ3651 { public static boolean validateStackSequences(List&lt;Integer&gt; pushed, List&lt;Integer&gt; popped) { Stack&lt;Integer&gt; stack = new Stack&lt;&gt;(); int popIndex = 0; for (int val : pushed) { stack.push(val); while (!stack.isEmpty() &amp;&amp; stack.peek().equals(popped.get(popIndex))) stack.pop(); popIndex++; } return stack.isEmpty(); } public static void main(String[] args) { List&lt;Integer&gt; pushed = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); List&lt;Integer&gt; popped = Arrays.stream(args[1].split(",")).map(Integer::parseInt).collect(Collectors.toList()); System.out.println(validateStackSequences(pushed, popped)); } }
+</t>
   </si>
   <si>
     <t>7.1.6.1. Stream First Non-repeating (Medium)</t>
@@ -3830,6 +4085,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">Convert this code into one line code . Ensure don’t change anything . Like class , package name, whole structure .
+</t>
+  </si>
+  <si>
     <t>7.1.7.1. Generate Binary Numbers from 1 to n (Easy)</t>
   </si>
   <si>
@@ -3856,6 +4115,10 @@
   System.out.println(generateBinaryNumbers(n).stream().map(String::valueOf).collect(Collectors.joining(",")));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3641; import java.util.*; import java.util.stream.*; public class CTJ3641 { public static List&lt;Integer&gt; generateBinaryNumbers(List&lt;Integer&gt; n) { List&lt;Integer&gt; result = new ArrayList&lt;&gt;(); Queue&lt;String&gt; queue = new LinkedList&lt;&gt;(); queue.offer("1"); for (int i = n.get(0); i-- &gt; 0; ) { String binary = queue.poll(); result.add(Integer.parseInt(binary)); queue.offer(binary + "0"); queue.offer(binary + "1"); } return result; } public static void main(String[] args) { List&lt;Integer&gt; n = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); System.out.println(generateBinaryNumbers(n).stream().map(String::valueOf).collect(Collectors.joining(","))); } }
+</t>
   </si>
   <si>
     <t>7.1.7.2. Minimum Operations to Make Binary Array Elements Equal</t>
@@ -3891,6 +4154,10 @@
   System.out.println(minOperations(num));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3684; import java.util.*; import java.util.stream.*; public class CTJ3684 { public static int minOperations(List&lt;Integer&gt; num) { int operations = 0, n = num.size(); for (int i = 0; i &lt;= n - 3; i++) if (num.get(i) == 0) { num.set(i, 1 - num.get(i)); num.set(i + 1, 1 - num.get(i + 1)); num.set(i + 2, 1 - num.get(i + 2)); operations++; } for (int i = 0; i &lt; n; i++) if (num.get(i) == 0) return -1; return operations; } public static void main(String[] args) { List&lt;Integer&gt; num = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); System.out.println(minOperations(num)); } }
+</t>
   </si>
   <si>
     <t>7.1.7.3. Steps by Knight (Medium)</t>
@@ -3938,6 +4205,9 @@
 }</t>
   </si>
   <si>
+    <t>package q3683; import java.util.*; import java.util.stream.*; public class CTJ3683 { public static int minStepToReachTarget(List&lt;Integer&gt; knightpos, List&lt;Integer&gt; targetpos, int n) { int[][] directions = {{-2,-1},{-1,-2},{1,-2},{2,-1},{-2,1},{-1,2},{1,2},{2,1}}; boolean[][] visited = new boolean[n+1][n+1]; Queue&lt;int[]&gt; queue = new LinkedList&lt;&gt;(); int startX = knightpos.get(0), startY = knightpos.get(1), endX = targetpos.get(0), endY = targetpos.get(1); queue.add(new int[]{startX,startY,0}); visited[startX][startY] = true; while (!queue.isEmpty()) { int[] curr = queue.poll(); int x = curr[0], y = curr[1], dist = curr[2]; if (x == endX &amp;&amp; y == endY) return dist; for (int[] dir : directions) { int nx = x + dir[0], ny = y + dir[1]; if (nx &gt;= 1 &amp;&amp; ny &gt;= 1 &amp;&amp; nx &lt;= n &amp;&amp; ny &lt;= n &amp;&amp; !visited[nx][ny]) { visited[nx][ny] = true; queue.add(new int[]{nx, ny, dist + 1}); } } } return -1; } public static void main(String[] args) { List&lt;Integer&gt; knightpos = Arrays.stream(args[0].split(",")).map(Integer::parseInt).collect(Collectors.toList()); List&lt;Integer&gt; targetpos = Arrays.stream(args[1].split(",")).map(Integer::parseInt).collect(Collectors.toList()); int n = Integer.parseInt(args[2]); System.out.println(minStepToReachTarget(knightpos, targetpos, n)); } }</t>
+  </si>
+  <si>
     <t>7.2.3.1. First Unique Character in a String (Easy)</t>
   </si>
   <si>
@@ -3963,6 +4233,10 @@
   System.out.println(firstUniqChar(s));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3643; public class CTJ3643 { public static long firstUniqChar(String s) { int[] freq = new int[26]; for (char c : s.toCharArray()) freq[c - 'a']++; for (int i = 0; i &lt; s.length(); i++) if (freq[s.charAt(i) - 'a'] == 1) return i; return -1; } public static void main(String[] args) { String s = args[0]; System.out.println(firstUniqChar(s)); } }
+</t>
   </si>
   <si>
     <t>7.2.4.1. Number ot Students unable to eat Lunch (Easy)</t>
@@ -3992,6 +4266,10 @@
   System.out.println(countStudents(students, sandwiches));
  }
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package q3678; import java.util.*; import java.util.stream.*; public class CTJ3678 { public static int countStudents(List&lt;Integer&gt; students, List&lt;Integer&gt; sandwiches) { int[] count = new int[2]; for (int student : students) count[student]++; for (int sandwich : sandwiches) { if (count[sandwich] == 0) break; count[sandwich]--; } return count[0] + count[1]; } public static void main(String[] args) { List&lt;Integer&gt; students = Arrays.stream(args[0].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); List&lt;Integer&gt; sandwiches = Arrays.stream(args[1].split(",")).map(s -&gt; Integer.parseInt(s)).collect(Collectors.toList()); System.out.println(countStudents(students, sandwiches)); } }
+</t>
   </si>
   <si>
     <t>7.3.4.1. Ticket counter (Easy)</t>
@@ -4031,6 +4309,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve">package q3680; import java.util.Deque; import java.util.LinkedList; public class CTJ3680 { public static int distributeTicket(int n, int k) { Deque&lt;Integer&gt; queue = new LinkedList&lt;&gt;(); for (int i = 1; i &lt;= n; i++) queue.add(i); boolean fromFront = true; while (queue.size() &gt; 1) { if (fromFront) for (int i = 0; i &lt; k &amp;&amp; queue.size() &gt; 1; i++) queue.pollFirst(); else for (int i = 0; i &lt; k &amp;&amp; queue.size() &gt; 1; i++) queue.pollLast(); fromFront = !fromFront; } return queue.peek(); } public static void main(String[] args) { int n = Integer.parseInt(args[0]); int k = Integer.parseInt(args[1]); System.out.println(distributeTicket(n, k)); } }
+</t>
+  </si>
+  <si>
     <t>55 second</t>
   </si>
   <si>
@@ -4125,7 +4407,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4135,8 +4417,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4286,7 +4574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4326,6 +4614,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4392,12 +4710,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4634,16 +4946,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4652,55 +4961,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4709,62 +5006,77 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4774,11 +5086,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4787,9 +5103,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5118,35 +5460,35 @@
   <sheetPr/>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="57.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="30.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="15.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="30.7142857142857" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.5714285714286" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="7" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5154,13 +5496,13 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5168,13 +5510,13 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5182,13 +5524,13 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5196,13 +5538,13 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5210,13 +5552,13 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5224,13 +5566,13 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5238,13 +5580,13 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5252,13 +5594,13 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5266,13 +5608,13 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5280,13 +5622,13 @@
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5294,13 +5636,13 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5308,13 +5650,13 @@
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5322,13 +5664,13 @@
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5336,13 +5678,13 @@
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5350,13 +5692,13 @@
       <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5364,13 +5706,13 @@
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5378,13 +5720,13 @@
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5392,13 +5734,13 @@
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5406,13 +5748,13 @@
       <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5420,13 +5762,13 @@
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5434,13 +5776,13 @@
       <c r="A22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5448,13 +5790,13 @@
       <c r="A23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5462,13 +5804,13 @@
       <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5476,13 +5818,13 @@
       <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5490,13 +5832,13 @@
       <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5504,671 +5846,917 @@
       <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" ht="19" customHeight="1" spans="1:2">
-      <c r="A28" s="5" t="s">
+    <row r="28" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="19" customHeight="1" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A29" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C29" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A31" s="5" t="s">
+    <row r="30" s="4" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B30" s="18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="35" customHeight="1" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="C30" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="31" s="4" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="37" customHeight="1" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="B31" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C31" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A34" s="5" t="s">
+    <row r="32" s="4" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B32" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="C32" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="33" s="4" customFormat="1" ht="37" customHeight="1" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="B33" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C33" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="5" t="s">
+    <row r="34" s="4" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B34" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="C34" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="35" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C35" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" s="5" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A40" s="5" t="s">
+    <row r="36" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="B36" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" s="8" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A41" s="8" t="s">
+      <c r="C36" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="14" t="s">
+    </row>
+    <row r="37" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="B37" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C37" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" s="5" customFormat="1" ht="32" customHeight="1" spans="1:2">
-      <c r="A43" s="5" t="s">
+    <row r="38" s="4" customFormat="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="E38" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="6" t="s">
+    </row>
+    <row r="39" s="4" customFormat="1" ht="22" customHeight="1" spans="1:4">
+      <c r="A39" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" s="5" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="B39" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A46" s="5" t="s">
+    <row r="40" s="8" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A40" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A47" s="5" t="s">
+    <row r="41" s="9" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A41" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B41" s="25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="48" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="C41" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="D41" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A49" s="5" t="s">
+    <row r="42" s="4" customFormat="1" ht="22" customHeight="1" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" s="5" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="C42" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="D42" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" ht="19" customHeight="1" spans="1:2">
-      <c r="A51" s="5" t="s">
+    <row r="43" s="4" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B43" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" s="5" customFormat="1" ht="16" customHeight="1" spans="1:2">
-      <c r="A52" s="5" t="s">
+      <c r="C43" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="D43" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A53" s="5" t="s">
+    <row r="44" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B44" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="C44" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="6" t="s">
+    </row>
+    <row r="45" s="4" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A45" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="55" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="B45" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C45" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" s="8" customFormat="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A56" s="8" t="s">
+    <row r="46" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="B46" s="18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="C46" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="47" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A47" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" s="5" customFormat="1" ht="17" customHeight="1" spans="1:2">
-      <c r="A58" s="5" t="s">
+      <c r="B47" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C47" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A59" s="5" t="s">
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B48" s="18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="5" t="s">
+      <c r="C48" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="6" t="s">
+    </row>
+    <row r="49" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A49" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" s="5" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="B49" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C49" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A62" s="5" t="s">
+    <row r="50" s="4" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A50" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B50" s="18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="C50" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="6" t="s">
+    </row>
+    <row r="51" s="4" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="64" s="5" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="B51" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C51" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" ht="19" customHeight="1" spans="1:2">
-      <c r="A65" s="5" t="s">
+    <row r="52" s="4" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B52" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="66" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A66" s="5" t="s">
+      <c r="C52" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="6" t="s">
+    </row>
+    <row r="53" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A53" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="67" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="B53" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C53" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A68" s="5" t="s">
+    <row r="54" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B54" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="C54" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="6" t="s">
+    </row>
+    <row r="55" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A55" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="70" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="B55" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C55" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A71" s="5" t="s">
+    <row r="56" s="10" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A56" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B56" s="28"/>
+      <c r="D56" s="9"/>
+      <c r="F56" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A72" s="5" t="s">
+    <row r="57" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A57" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B57" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" s="5" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A73" s="5" t="s">
+      <c r="C57" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F73" s="6" t="s">
+    </row>
+    <row r="58" s="4" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A58" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" s="5" customFormat="1" ht="17" customHeight="1" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="B58" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C58" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A75" s="5" t="s">
+    <row r="59" s="4" customFormat="1" ht="25" customHeight="1" spans="1:3">
+      <c r="A59" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B59" s="18" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="76" s="5" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="C59" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="60" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A60" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="77" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A77" s="5" t="s">
+      <c r="B60" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C60" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A78" s="5" t="s">
+    <row r="61" s="4" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A61" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B61" s="18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="79" s="5" customFormat="1" ht="16" customHeight="1" spans="1:6">
-      <c r="A79" s="5" t="s">
+      <c r="C61" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F79" s="6" t="s">
+    </row>
+    <row r="62" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A62" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="80" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A80" s="5" t="s">
+      <c r="B62" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="C62" s="19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" s="5" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A81" s="5" t="s">
+    <row r="63" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A63" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="B63" s="18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="82" s="5" customFormat="1" ht="10" customHeight="1" spans="1:2">
-      <c r="A82" s="5" t="s">
+      <c r="C63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B82" s="6" t="s">
+    </row>
+    <row r="64" s="4" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A64" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="83" s="5" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A83" s="5" t="s">
+      <c r="B64" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C64" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A84" s="5" t="s">
+    <row r="65" s="4" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A65" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B65" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="85" s="5" customFormat="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A85" s="5" t="s">
+      <c r="C65" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F85" s="6" t="s">
+    </row>
+    <row r="66" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="86" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A86" s="5" t="s">
+      <c r="B66" s="18"/>
+      <c r="D66" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B86" s="6" t="s">
+    </row>
+    <row r="67" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A67" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="87" s="5" customFormat="1" ht="16" customHeight="1" spans="1:6">
-      <c r="A87" s="5" t="s">
+      <c r="B67" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="C67" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="88" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A88" s="5" t="s">
+    <row r="68" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A68" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B68" s="18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="89" s="5" customFormat="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A89" s="5" t="s">
+      <c r="C68" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="6" t="s">
+    </row>
+    <row r="69" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A69" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="90" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A90" s="5" t="s">
+      <c r="B69" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C69" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="91" s="5" customFormat="1" ht="14" customHeight="1" spans="1:2">
-      <c r="A91" s="5" t="s">
+    <row r="70" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B70" s="18" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="92" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A92" s="5" t="s">
+      <c r="C70" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B92" s="6" t="s">
+    </row>
+    <row r="71" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A71" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="93" s="5" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A93" s="5" t="s">
+      <c r="B71" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="C71" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A94" s="5" t="s">
+    <row r="72" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A72" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B72" s="18" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="95" s="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A95" s="5" t="s">
+      <c r="C72" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B95" s="6" t="s">
+    </row>
+    <row r="73" s="1" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A73" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" s="5" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A96" s="5" t="s">
+      <c r="B73" s="30"/>
+      <c r="D73" s="4"/>
+      <c r="F73" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B96" s="6" t="s">
+    </row>
+    <row r="74" s="4" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A74" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="97" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A97" s="5" t="s">
+      <c r="B74" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C74" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="98" s="5" customFormat="1" ht="17" customHeight="1" spans="1:4">
-      <c r="A98" s="5" t="s">
+    <row r="75" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A75" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="B75" s="18" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="99" s="5" customFormat="1" ht="16" customHeight="1" spans="1:2">
-      <c r="A99" s="5" t="s">
+      <c r="C75" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B99" s="6" t="s">
+    </row>
+    <row r="76" s="4" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A76" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="100" s="5" customFormat="1" ht="17" customHeight="1" spans="1:2">
-      <c r="A100" s="5" t="s">
+      <c r="B76" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="C76" s="19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="101" s="5" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A101" s="5" t="s">
+    <row r="77" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A77" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B77" s="18" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="102" s="5" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A102" s="5" t="s">
+      <c r="C77" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B102" s="6" t="s">
+    </row>
+    <row r="78" s="4" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A78" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="103" s="5" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A103" s="5" t="s">
+      <c r="B78" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="C78" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" ht="16" customHeight="1" spans="1:2">
-      <c r="A104" s="5" t="s">
+    <row r="79" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A79" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B79" s="30"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="1" ht="26" customHeight="1" spans="1:2">
-      <c r="A105" s="5" t="s">
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A80" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B80" s="30"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A106" s="5" t="s">
+    <row r="81" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A81" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B81" s="30"/>
+      <c r="D81" s="4"/>
+      <c r="F81" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A107" s="5" t="s">
+    <row r="82" s="4" customFormat="1" ht="10" customHeight="1" spans="1:3">
+      <c r="A82" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B82" s="18" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="108" s="5" customFormat="1" ht="16" customHeight="1" spans="1:2">
-      <c r="A108" s="5" t="s">
+      <c r="C82" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B108" s="6" t="s">
+    </row>
+    <row r="83" s="4" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A83" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="109" s="5" customFormat="1" ht="19" customHeight="1" spans="1:2">
+      <c r="B83" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A90" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" ht="14" customHeight="1" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A92" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="D93" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A95" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" s="4" customFormat="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A96" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A97" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="17" customHeight="1" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="D98" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A99" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A100" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" s="4" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A101" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A102" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A103" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A104" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="26" customHeight="1" spans="1:3">
+      <c r="A105" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A106" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A107" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" s="4" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A108" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" s="5" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>273</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6203,34 +6791,34 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>9</v>
@@ -6238,74 +6826,74 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
